--- a/TradingSimula_18-2022/TF-System#1_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#1_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-2288.575000000003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-6023.625000000005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-24474.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-37246.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>1093.75</v>
+        <v>-28983.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>8609.375</v>
+        <v>-32575.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>11093.75</v>
+        <v>-42823.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>21406.25</v>
+        <v>-25797.45000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>20515.625</v>
+        <v>-34371.44999999972</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>17968.75</v>
+        <v>-59268.54999999979</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>14562.5</v>
+        <v>-84498.15000000013</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>985.9370000000013</v>
+        <v>-66615.97500000008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>1431.25</v>
+        <v>-116587.6500000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>1220.312000000001</v>
+        <v>-108046.5000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>-1353.125</v>
+        <v>-96537.40000000005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>-5035.937999999998</v>
+        <v>-119306.8500000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>-5023.437999999998</v>
+        <v>-135953.1000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>-8468.750999999997</v>
+        <v>-137656.2250000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>2234.374000000003</v>
+        <v>-133802.3500000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>17734.374</v>
+        <v>-167944.9000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>25328.124</v>
+        <v>-13081.85000000016</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>20828.124</v>
+        <v>-172850.8000000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>24718.749</v>
+        <v>-105690.0250000002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>30554.687</v>
+        <v>-266248.0000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>33093.749</v>
+        <v>-244172.2250000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>28976.562</v>
+        <v>-248634.9750000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>21793.749</v>
+        <v>-261736.3000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>28774.999</v>
+        <v>-271288.5750000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>38806.249</v>
+        <v>-264529.2250000002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>36493.749</v>
+        <v>-326195.7749999998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>40837.499</v>
+        <v>-383262.4000000002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>40478.124</v>
+        <v>-392741.2750000003</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>38212.499</v>
+        <v>-365835.0000000002</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>37696.874</v>
+        <v>-399883.8750000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>40868.749</v>
+        <v>-418241.5000000002</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>37446.874</v>
+        <v>-406328.3000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>31915.624</v>
+        <v>-383881.9500000002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>35134.374</v>
+        <v>-350857.8750000002</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>36259.374</v>
+        <v>-410876.7500000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>41540.624</v>
+        <v>-403471.7000000002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>30503.124</v>
+        <v>-390605.1000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>38714.061</v>
+        <v>-432411.4500000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>40299.999</v>
+        <v>-420489.2000000002</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>42807.811</v>
+        <v>-486293.9500000002</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>37862.499</v>
+        <v>-481387.8250000002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>34815.624</v>
+        <v>-333848.2000000005</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>38034.374</v>
+        <v>-456987.2000000004</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>44409.374</v>
+        <v>-375936.9500000005</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>35112.499</v>
+        <v>14172.04999999941</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>32781.249</v>
+        <v>751560.6749999995</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>34874.999</v>
+        <v>1352392.024999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>35171.874</v>
+        <v>11594.27499999955</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>35426.561</v>
+        <v>54727.84999999953</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>35489.061</v>
+        <v>-135279.5500000005</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>36270.311</v>
+        <v>103523.8749999998</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>39001.561</v>
+        <v>19831.94999999941</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>36814.061</v>
+        <v>311484.9749999994</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>37001.561</v>
+        <v>189670.9749999995</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>39885.936</v>
+        <v>435840.6999999997</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>41823.436</v>
+        <v>465600.3249999995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>48667.186</v>
+        <v>408666.9249999995</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>39976.561</v>
+        <v>573614.0499999995</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>42007.811</v>
+        <v>573315.7749999994</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>37726.561</v>
+        <v>437247.0999999996</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>26989.06100000001</v>
+        <v>393678.5999999996</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>31770.31100000001</v>
+        <v>524415.6249999994</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>26676.56100000001</v>
+        <v>855032.2499999993</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>24907.81100000001</v>
+        <v>812977.9249999993</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>24907.81100000001</v>
+        <v>1105720</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>24907.81100000001</v>
+        <v>1292403.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>24907.81100000001</v>
+        <v>1582389.124999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>24907.81100000001</v>
+        <v>1810715.874999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>24907.81100000001</v>
+        <v>2262809.799999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>24360.93600000001</v>
+        <v>2159670.924999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>20971.874</v>
+        <v>2968611.774999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>19846.874</v>
+        <v>5926734.175</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>21221.874</v>
+        <v>6342724.949999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>30253.124</v>
+        <v>5052603.075</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>32346.874</v>
+        <v>5561963.725</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>29721.874</v>
+        <v>5274383.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>27503.124</v>
+        <v>5276421.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>22065.624</v>
+        <v>5001528.525</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>25484.374</v>
+        <v>4629538.625</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>26523.43600000001</v>
+        <v>3780193.875</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>25945.31100000001</v>
+        <v>3121146.174999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>23007.81100000001</v>
+        <v>3106754.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>23812.499</v>
+        <v>3073997.399999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>19851.56100000001</v>
+        <v>3693487.999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>16421.874</v>
+        <v>3101318.074999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>15207.81100000001</v>
+        <v>3062080.224999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>14535.93600000001</v>
+        <v>3063612.149999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>12551.56100000001</v>
+        <v>2979333.399999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>13837.499</v>
+        <v>3006489.124999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>14212.499</v>
+        <v>3012907.524999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>14868.749</v>
+        <v>2050330.999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>14868.749</v>
+        <v>2066388.924999998</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>17712.499</v>
+        <v>2049958.799999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>19665.624</v>
+        <v>2666784.999999998</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>14853.124</v>
+        <v>1877720.699999998</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>20103.124</v>
+        <v>1877059.274999998</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>15053.124</v>
+        <v>1898693.249999998</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>14745.312</v>
+        <v>1966868.714999998</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>14742.187</v>
+        <v>1902189.664999998</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>13789.062</v>
+        <v>1612983.649999998</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>15273.437</v>
+        <v>2296048.724999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>15351.562</v>
+        <v>3778372.334999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>11207.812</v>
+        <v>3555963.039999998</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>15068.749</v>
+        <v>3049157.419999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>16381.249</v>
+        <v>2421595.174999998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>13537.499</v>
+        <v>1290092.614999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>22209.374</v>
+        <v>1265469.374999998</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>19287.499</v>
+        <v>1210231.699999998</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>30435.937</v>
+        <v>1155303.749999998</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>34318.749</v>
+        <v>839234.6299999979</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>33170.31200000001</v>
+        <v>817555.0049999983</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>49224.999</v>
+        <v>602722.3549999982</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>44053.124</v>
+        <v>547260.9799999982</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>43154.68700000001</v>
+        <v>542526.6299999983</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>39959.374</v>
+        <v>556164.7299999982</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>35599.999</v>
+        <v>547794.4299999982</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>48170.31200000001</v>
+        <v>402004.9299999973</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>61053.124</v>
+        <v>389485.1799999973</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>76412.49900000001</v>
+        <v>390829.5299999973</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>78881.24900000001</v>
+        <v>400897.5799999973</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>78365.62400000001</v>
+        <v>-237153.3700000024</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>78779.68700000001</v>
+        <v>-342510.8450000026</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>83787.49900000001</v>
+        <v>-354466.9200000026</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>77982.81200000001</v>
+        <v>-333098.5200000026</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>78826.56200000001</v>
+        <v>99483.15499999694</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>73271.87400000001</v>
+        <v>1503323.579999998</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>74974.99900000001</v>
+        <v>3304218.304999997</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>73295.31200000001</v>
+        <v>4717442.389999996</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>67490.62400000001</v>
+        <v>3329627.704999998</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>60457.81200000001</v>
+        <v>6217819.414999998</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>67434.375</v>
+        <v>8213736.379999999</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>63145.31200000001</v>
+        <v>13575940.21499999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>61028.125</v>
+        <v>8370254.889999997</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>56095.31200000001</v>
+        <v>6598011.424999996</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>53073.43700000001</v>
+        <v>9255507.649999997</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>52885.93700000001</v>
+        <v>10106443.815</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>49135.93700000001</v>
+        <v>4790325.614999997</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>47867.18700000001</v>
+        <v>3918160.464999998</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>46726.56200000001</v>
+        <v>3931953.364999997</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>47492.18700000001</v>
+        <v>3911484.249999998</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>51765.624</v>
+        <v>3934999.714999998</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>52820.31200000001</v>
+        <v>2757549.084999997</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2751562.679999998</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2753568.619999997</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2346427.819999998</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2333367.369999997</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2334388.619999997</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2312510.669999998</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3580670.049999997</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2166260.669999998</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2155961.289999998</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2152099.419999998</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2150646.919999998</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2150965.049999997</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2175807.549999997</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1745981.299999997</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1769809.744999997</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1762789.429999997</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1820839.864999997</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1872691.114999997</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1488536.804999997</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1527649.979999997</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1597547.829999997</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1644105.479999997</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1547938.804999997</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1494676.879999997</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1525181.579999996</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1510833.204999997</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1486905.969999997</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1490370.439999997</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1502629.439999997</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1501690.964999997</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1924394.369999996</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2368588.429999997</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2673739.454999997</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2675178.654999996</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1189103.254999998</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1204096.679999997</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1217098.979999997</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1181518.479999997</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1184388.479999997</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1175836.179999997</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1104803.279999997</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1043377.729999997</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1052448.679999997</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1052123.629999997</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1060043.079999997</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1029897.229999997</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>998245.8799999971</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>935239.1499999971</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>765373.2949999974</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>756007.7949999974</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>747404.4449999973</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>778627.7449999973</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>595681.6449999973</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>581385.3449999974</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>585829.8949999973</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>590009.5449999974</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1282246.779999998</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1021459.294999998</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1568689.114999997</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1626673.804999997</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1453931.844999997</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1363540.254999997</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1294852.079999997</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1655026.464999998</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2158423.839999997</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2682285.679999998</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2365948.754999997</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2835771.704999998</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2847618.479999997</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3500405.819999997</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3415231.639999998</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2936843.089999997</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2670074.189999998</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2803434.794999997</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2784324.159999997</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2539601.344999998</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1857150.119999998</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1772467.519999998</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1770404.884999998</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1736485.534999998</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1752575.679999998</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1638475.549999998</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1633377.549999998</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1600550.624999999</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1602946.299999999</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1598202.374999999</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1606857.014999999</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1591096.974999999</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1539154.739999999</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1513717.984999999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1412844.064999999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1406515.229999999</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1398429.804999999</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1398323.029999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1428979.784999999</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1415392.275</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2214252.100000001</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1392417.65</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1249168.725</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>751684.2450000002</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2129151.444999999</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4110734.325000001</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1451846.525000001</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1531682.485</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>976400.0550000012</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3068860.504999999</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3394911.575000002</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4488982.825000001</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3279558.185</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5168449.525000001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6789256.365000002</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4901624.585000001</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5066409.215</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4033703.135</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2106106.735</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2826703.555000001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2561269.835000001</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3005761.865000002</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2685012.600000001</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3027833.525</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>60976.56200000001</v>
+      <c r="B269" t="n">
+        <v>3845883.775000001</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3070415.200000002</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1752294.175000002</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1648587.425000002</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1562283.790000002</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1429244.215000002</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1400892.415000002</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1304715.025000002</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1266778.965000002</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1267481.160000002</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1256459.160000002</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1238290.585000002</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1229465.190000002</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1140243.610000001</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1141780.750000002</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1152837.950000002</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1164603.015000002</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1157576.650000002</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1158071.650000002</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1127643.640000002</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1140206.740000002</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1312852.940000002</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1337219.625000002</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1446276.360000001</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1583842.260000002</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1695797.460000002</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1382867.660000002</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>959600.1600000011</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>839334.360000001</v>
       </c>
     </row>
   </sheetData>
